--- a/back-end/程序/剧本信息/故事大纲/outline.xlsx
+++ b/back-end/程序/剧本信息/故事大纲/outline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>章节名</t>
   </si>
@@ -28,79 +28,82 @@
     <t>参与人物</t>
   </si>
   <si>
-    <t>祖父的遗物</t>
-  </si>
-  <si>
-    <t>Expositon</t>
-  </si>
-  <si>
-    <t>杰克在整理祖父的遗物时发现了一张古老的藏宝图，激发了他的好奇心和探险欲望。</t>
+    <t>第一章 祖父的藏宝图</t>
+  </si>
+  <si>
+    <t>Exposition</t>
+  </si>
+  <si>
+    <t>故事介绍主人公杰克和他的祖父留下的藏宝图，杰克决定踏上寻宝之旅。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '祖父'}</t>
   </si>
   <si>
-    <t>遇见莉莉</t>
+    <t>第二章 机智的伙伴</t>
   </si>
   <si>
     <t>Inciting Incident</t>
   </si>
   <si>
-    <t>杰克在准备寻宝时遇见了同样机智的莉莉，两人决定一起展开寻宝之旅。</t>
+    <t>杰克在旅途中遇到了莉莉，两人决定一起寻找宝藏。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}</t>
   </si>
   <si>
-    <t>巴克的加入</t>
+    <t>第三章 旅途的考验</t>
   </si>
   <si>
     <t>Conflict</t>
   </si>
   <si>
-    <t>忠诚的小狗巴克加入了杰克和莉莉的队伍，他们一起遇到了第一个难题。</t>
+    <t>杰克、莉莉和巴克开始面对各种困难和挑战。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}</t>
   </si>
   <si>
-    <t>谜题重重</t>
+    <t>第四章 智慧的闪光</t>
   </si>
   <si>
     <t>Rising Action</t>
   </si>
   <si>
-    <t>寻宝小队在旅途中不断解开各种谜题，困难重重，但他们的友谊和勇气不断增强。</t>
-  </si>
-  <si>
-    <t>发现宝藏</t>
+    <t>莉莉的智慧帮助他们解决了许多看似无解的难题。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '莉莉'}, {'角色名字': '杰克'}, {'角色名字': '巴克'}</t>
+  </si>
+  <si>
+    <t>第五章 惊天的秘密</t>
   </si>
   <si>
     <t>Climax</t>
   </si>
   <si>
-    <t>经过一系列的冒险和挑战，杰克、莉莉和巴克终于找到了传说中的宝藏。</t>
-  </si>
-  <si>
-    <t>小镇的幸福</t>
+    <t>他们在寻宝过程中发现了一个关系到整个小镇的秘密。</t>
+  </si>
+  <si>
+    <t>第六章 功德的回报</t>
   </si>
   <si>
     <t>Falling Action</t>
   </si>
   <si>
-    <t>他们用宝藏帮助小镇发展，小镇居民的生活质量得到了极大的提高。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}, {'角色名字': '小镇居民'}</t>
-  </si>
-  <si>
-    <t>英雄归来</t>
+    <t>杰克和莉莉利用宝藏帮助小镇居民，改善了大家的生活。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '小镇居民'}</t>
+  </si>
+  <si>
+    <t>第七章 和谐的未来</t>
   </si>
   <si>
     <t>Denouement</t>
   </si>
   <si>
-    <t>杰克、莉莉和巴克被小镇居民视为英雄，他们的故事被传颂，成为了小镇的传奇。</t>
+    <t>故事结尾，小镇焕然一新，杰克和莉莉成为了小镇的英雄。</t>
   </si>
 </sst>
 </file>
@@ -505,18 +508,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -524,30 +527,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/程序/剧本信息/故事大纲/outline.xlsx
+++ b/back-end/程序/剧本信息/故事大纲/outline.xlsx
@@ -28,82 +28,82 @@
     <t>参与人物</t>
   </si>
   <si>
-    <t>第一章 祖父的藏宝图</t>
-  </si>
-  <si>
-    <t>Exposition</t>
-  </si>
-  <si>
-    <t>故事介绍主人公杰克和他的祖父留下的藏宝图，杰克决定踏上寻宝之旅。</t>
+    <t>藏宝图的启示</t>
+  </si>
+  <si>
+    <t>Expositon</t>
+  </si>
+  <si>
+    <t>故事开始于杰克发现祖父遗留的藏宝图，决定踏上寻宝之旅。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '祖父'}</t>
   </si>
   <si>
-    <t>第二章 机智的伙伴</t>
+    <t>不期而遇的伙伴</t>
   </si>
   <si>
     <t>Inciting Incident</t>
   </si>
   <si>
-    <t>杰克在旅途中遇到了莉莉，两人决定一起寻找宝藏。</t>
+    <t>杰克在寻宝途中遇到了莉莉，两人决定一起寻找宝藏。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}</t>
   </si>
   <si>
-    <t>第三章 旅途的考验</t>
+    <t>忠诚的伙伴</t>
   </si>
   <si>
     <t>Conflict</t>
   </si>
   <si>
-    <t>杰克、莉莉和巴克开始面对各种困难和挑战。</t>
+    <t>巴克加入了杰克和莉莉的寻宝队伍，三人在旅途中遭遇了各种困难。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}</t>
   </si>
   <si>
-    <t>第四章 智慧的闪光</t>
+    <t>谜题的揭晓</t>
   </si>
   <si>
     <t>Rising Action</t>
   </si>
   <si>
-    <t>莉莉的智慧帮助他们解决了许多看似无解的难题。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '莉莉'}, {'角色名字': '杰克'}, {'角色名字': '巴克'}</t>
-  </si>
-  <si>
-    <t>第五章 惊天的秘密</t>
+    <t>杰克、莉莉和巴克解开了一系列的谜题，逐渐接近宝藏的所在。</t>
+  </si>
+  <si>
+    <t>危机四伏</t>
   </si>
   <si>
     <t>Climax</t>
   </si>
   <si>
-    <t>他们在寻宝过程中发现了一个关系到整个小镇的秘密。</t>
-  </si>
-  <si>
-    <t>第六章 功德的回报</t>
+    <t>在接近宝藏的过程中，三人遇到了最大的危险，勇敢地与之抗争。</t>
+  </si>
+  <si>
+    <t>胜利的喜悦</t>
   </si>
   <si>
     <t>Falling Action</t>
   </si>
   <si>
-    <t>杰克和莉莉利用宝藏帮助小镇居民，改善了大家的生活。</t>
+    <t>杰克、莉莉和巴克成功找到宝藏，并帮助小镇居民改善了生活。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}, {'角色名字': '小镇居民'}</t>
+  </si>
+  <si>
+    <t>新的开始</t>
+  </si>
+  <si>
+    <t>Denouement</t>
+  </si>
+  <si>
+    <t>故事结束，杰克和莉莉成为了小镇上的英雄，小镇居民过上了幸福的生活。</t>
   </si>
   <si>
     <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '小镇居民'}</t>
-  </si>
-  <si>
-    <t>第七章 和谐的未来</t>
-  </si>
-  <si>
-    <t>Denouement</t>
-  </si>
-  <si>
-    <t>故事结尾，小镇焕然一新，杰克和莉莉成为了小镇的英雄。</t>
   </si>
 </sst>
 </file>
@@ -508,18 +508,18 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -527,30 +527,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/程序/剧本信息/故事大纲/outline.xlsx
+++ b/back-end/程序/剧本信息/故事大纲/outline.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
-    <t>章节名</t>
-  </si>
-  <si>
-    <t>故事阶段</t>
-  </si>
-  <si>
-    <t>情节梗概</t>
-  </si>
-  <si>
-    <t>参与人物</t>
-  </si>
-  <si>
-    <t>藏宝图的启示</t>
+    <t>plotName</t>
+  </si>
+  <si>
+    <t>plotStage</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>寻宝的启示</t>
   </si>
   <si>
     <t>Expositon</t>
   </si>
   <si>
-    <t>故事开始于杰克发现祖父遗留的藏宝图，决定踏上寻宝之旅。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '祖父'}</t>
+    <t>杰克在家中发现了祖父留下的藏宝图，决定踏上寻宝之旅。</t>
+  </si>
+  <si>
+    <t>{'name': '杰克'}, {'name': '祖父'}</t>
   </si>
   <si>
     <t>不期而遇的伙伴</t>
@@ -46,10 +46,10 @@
     <t>Inciting Incident</t>
   </si>
   <si>
-    <t>杰克在寻宝途中遇到了莉莉，两人决定一起寻找宝藏。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}</t>
+    <t>在前往寻宝的路上，杰克遇到了莉莉，她决定加入杰克，一起寻宝。</t>
+  </si>
+  <si>
+    <t>{'name': '杰克'}, {'name': '莉莉'}</t>
   </si>
   <si>
     <t>忠诚的伙伴</t>
@@ -58,10 +58,10 @@
     <t>Conflict</t>
   </si>
   <si>
-    <t>巴克加入了杰克和莉莉的寻宝队伍，三人在旅途中遭遇了各种困难。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}</t>
+    <t>巴克，杰克忠诚的小狗，也加入了寻宝队伍，共同面对未知的风险。</t>
+  </si>
+  <si>
+    <t>{'name': '杰克'}, {'name': '莉莉'}, {'name': '巴克'}</t>
   </si>
   <si>
     <t>谜题的揭晓</t>
@@ -70,7 +70,7 @@
     <t>Rising Action</t>
   </si>
   <si>
-    <t>杰克、莉莉和巴克解开了一系列的谜题，逐渐接近宝藏的所在。</t>
+    <t>杰克和莉莉解开了一系列的谜题和线索，逐渐接近宝藏的真正位置。</t>
   </si>
   <si>
     <t>危机四伏</t>
@@ -79,31 +79,31 @@
     <t>Climax</t>
   </si>
   <si>
-    <t>在接近宝藏的过程中，三人遇到了最大的危险，勇敢地与之抗争。</t>
-  </si>
-  <si>
-    <t>胜利的喜悦</t>
+    <t>在找到宝藏的同时，三人小组也遭遇了严重的危机，必须依靠智慧和勇气来克服。</t>
+  </si>
+  <si>
+    <t>胜利的果实</t>
   </si>
   <si>
     <t>Falling Action</t>
   </si>
   <si>
-    <t>杰克、莉莉和巴克成功找到宝藏，并帮助小镇居民改善了生活。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}, {'角色名字': '小镇居民'}</t>
-  </si>
-  <si>
-    <t>新的开始</t>
+    <t>成功找到宝藏，杰克和莉莉用宝藏帮助小镇居民改善了生活。</t>
+  </si>
+  <si>
+    <t>{'name': '杰克'}, {'name': '莉莉'}, {'name': '小镇居民'}</t>
+  </si>
+  <si>
+    <t>美好的结局</t>
   </si>
   <si>
     <t>Denouement</t>
   </si>
   <si>
-    <t>故事结束，杰克和莉莉成为了小镇上的英雄，小镇居民过上了幸福的生活。</t>
-  </si>
-  <si>
-    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '小镇居民'}</t>
+    <t>小镇焕然一新，杰克和莉莉成为了英雄，他们与巴克一起在小镇上幸福地生活。</t>
+  </si>
+  <si>
+    <t>{'name': '杰克'}, {'name': '莉莉'}, {'name': '巴克'}, {'name': '小镇居民'}</t>
   </si>
 </sst>
 </file>
